--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2211.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2211.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.384889422099825</v>
+        <v>0.9588997364044189</v>
       </c>
       <c r="B1">
-        <v>-1</v>
+        <v>2.213033676147461</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>8.332962989807129</v>
       </c>
       <c r="D1">
-        <v>1.180850471623301</v>
+        <v>1.702846765518188</v>
       </c>
       <c r="E1">
-        <v>0.794558187805893</v>
+        <v>1.337262630462646</v>
       </c>
     </row>
   </sheetData>
